--- a/medicine/Mort/Terrorisme_en_1984/Terrorisme_en_1984.xlsx
+++ b/medicine/Mort/Terrorisme_en_1984/Terrorisme_en_1984.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -481,6 +491,8 @@
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,29 +520,163 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Janvier
-Février
-Mars
-Avril
-Mai
-8 mai, Canada : une fusillade au parlement du Québec fait trois morts et treize blessés[1].
-Juin
-16 juin, Liban : un attentat-suicide du Hezbollah au Liban, pendant l'opération Paix en Galilée, fait cinq morts[2].
-Juillet
-Août
-Septembre
-3 septembre, Canada : l'explosion d'une bombe à la gare centrale de Montréal, posée par un ancien militaire américain pour protester contre la visite du Pape, fait trois morts et une trentaine de blessés[3],[4],[5]
-12 septembre, Liban : un attentat-suicide au camion piégé contre l'ambassade américaine à Beyrouth, revendiqué par le Hezbollah, fait quatorze morts[2].
-Octobre
-2 octobre, Belgique : une explosion endommage gravement le siège de l'entreprise américaine Litton Industries à Evere. L'attentat, revendiqué par les Cellules Communistes Combattantes, ne fait que des dégâts matériels[6].
-3 octobre, Belgique : un nouvel attentat des CCC frappe l'entreprise allemande MAN à Dilbeek. L'attentat ne fait aucune victime[6].
-8 octobre, Belgique : un troisième attentat des CCC frappe l'entreprise américaine Honeywell, également à Evere. Aucune victime n'est à déplorer[6].
-12 octobre, Royaume-Uni : un attentat au Grand Hotel de Brighton, qui visait Margaret Thatcher et son cabinet, fait cinq morts et trente-quatre blessés. Le Premier Ministre britannique en réchappe de justesse[7]. L'attentat est revendiqué par l'IRA provisoire.
-15 octobre, Belgique : les Cellules Communistes Combattantes attaquent le siège du Parti réformateur libéral à Bruxelles. Seuls des dégâts matériels sont à déplorer[6].
-17 octobre, Belgique : c'est cette fois le siège du Christelijke Volkspartij, à Gand, qui est pris pour cible par les CCC. On ne déplore aucune victime[6].
-Novembre
-Décembre
-23 décembre 1984, Italie : l'explosion d'une bombe dans le train Naples-Milan, dans le tunnel San Benedetto Val di Sambro, fait quinze morts et cent seize blessés[8].</t>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>8 mai, Canada : une fusillade au parlement du Québec fait trois morts et treize blessés.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_1984</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_1984</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Juin</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>16 juin, Liban : un attentat-suicide du Hezbollah au Liban, pendant l'opération Paix en Galilée, fait cinq morts.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_1984</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_1984</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Septembre</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>3 septembre, Canada : l'explosion d'une bombe à la gare centrale de Montréal, posée par un ancien militaire américain pour protester contre la visite du Pape, fait trois morts et une trentaine de blessés
+12 septembre, Liban : un attentat-suicide au camion piégé contre l'ambassade américaine à Beyrouth, revendiqué par le Hezbollah, fait quatorze morts.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_1984</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_1984</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Octobre</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2 octobre, Belgique : une explosion endommage gravement le siège de l'entreprise américaine Litton Industries à Evere. L'attentat, revendiqué par les Cellules Communistes Combattantes, ne fait que des dégâts matériels.
+3 octobre, Belgique : un nouvel attentat des CCC frappe l'entreprise allemande MAN à Dilbeek. L'attentat ne fait aucune victime.
+8 octobre, Belgique : un troisième attentat des CCC frappe l'entreprise américaine Honeywell, également à Evere. Aucune victime n'est à déplorer.
+12 octobre, Royaume-Uni : un attentat au Grand Hotel de Brighton, qui visait Margaret Thatcher et son cabinet, fait cinq morts et trente-quatre blessés. Le Premier Ministre britannique en réchappe de justesse. L'attentat est revendiqué par l'IRA provisoire.
+15 octobre, Belgique : les Cellules Communistes Combattantes attaquent le siège du Parti réformateur libéral à Bruxelles. Seuls des dégâts matériels sont à déplorer.
+17 octobre, Belgique : c'est cette fois le siège du Christelijke Volkspartij, à Gand, qui est pris pour cible par les CCC. On ne déplore aucune victime.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_1984</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_1984</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Décembre</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>23 décembre 1984, Italie : l'explosion d'une bombe dans le train Naples-Milan, dans le tunnel San Benedetto Val di Sambro, fait quinze morts et cent seize blessés.</t>
         </is>
       </c>
     </row>
